--- a/Invoice/COM1040725.xlsx
+++ b/Invoice/COM1040725.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\SEG\docs\Invoice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\Invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D352EB60-F527-4A6A-91A9-8538204E2C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14979F35-12BB-4A5A-814C-95F297ADD1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>Jl. Raya Menteng, KM. 13 RT.03/04, Dusun Cijurey, Desa Sukadamai, Kec. Sukamakmur, Kab. Bogor.</t>
-  </si>
-  <si>
-    <t>Mr. Aminullah Yasin - Pondok Pesantren Al Andalus</t>
   </si>
   <si>
     <t>Blueprint + Native School Visit</t>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>COM1040725</t>
+  </si>
+  <si>
+    <t>Al Andalus Islamic International Boarding School</t>
   </si>
 </sst>
 </file>
@@ -731,9 +731,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -820,6 +817,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -874,35 +901,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -926,16 +926,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1042147</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>672352</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:rowOff>179293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>232372</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>358588</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30666</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -965,8 +965,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12195810" y="496570"/>
-          <a:ext cx="1804670" cy="1581785"/>
+          <a:off x="15845117" y="582705"/>
+          <a:ext cx="1733961" cy="1580030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1071,6 +1071,56 @@
         <a:xfrm>
           <a:off x="1199031" y="7351058"/>
           <a:ext cx="1964072" cy="1467971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>591575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2543736</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1307543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6E67A1E-DD2E-7F24-4E5E-99A3C74FD269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="806824" y="994987"/>
+          <a:ext cx="2308412" cy="715968"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1374,8 +1424,8 @@
   </sheetPr>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1400,14 +1450,14 @@
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="104.25" customHeight="1">
       <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3"/>
-      <c r="G3" s="10"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="34.5" customHeight="1">
@@ -1415,495 +1465,496 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B7" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B7" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="42" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="17"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="17"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="50" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="17"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="17"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="37"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="36"/>
       <c r="E11"/>
       <c r="F11"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="17"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="17"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="17"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <f>SUM(H18:H24)</f>
         <v>128304000</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <f>COUNT(D18:D24)</f>
         <v>6</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <f>SUM(D18:D24)</f>
         <v>648</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="17"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="17"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="65">
+      <c r="C19" s="46">
         <v>9781613529201</v>
       </c>
-      <c r="D19" s="66">
+      <c r="D19" s="47">
         <v>96</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="48">
         <v>220000</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="49">
         <v>0.1</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="48">
         <f>E19 - (E19*F19)</f>
         <v>198000</v>
       </c>
-      <c r="H19" s="67">
+      <c r="H19" s="48">
         <f>(E19-(E19*F19))*(D19)</f>
         <v>19008000</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="65">
+      <c r="B20" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="46">
         <v>9781613529232</v>
       </c>
-      <c r="D20" s="66">
+      <c r="D20" s="47">
         <v>120</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="48">
         <v>220000</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="49">
         <v>0.1</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="48">
         <f t="shared" ref="G20:G24" si="0">E20 - (E20*F20)</f>
         <v>198000</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="48">
         <f t="shared" ref="H20:H24" si="1">(E20-(E20*F20))*(D20)</f>
         <v>23760000</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="65">
+      <c r="B21" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="46">
         <v>9781613529263</v>
       </c>
-      <c r="D21" s="66">
+      <c r="D21" s="47">
         <v>112</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="48">
         <v>220000</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="49">
         <v>0.1</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="48">
         <f t="shared" si="0"/>
         <v>198000</v>
       </c>
-      <c r="H21" s="67">
+      <c r="H21" s="48">
         <f t="shared" si="1"/>
         <v>22176000</v>
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="65">
+      <c r="B22" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="46">
         <v>9781613529294</v>
       </c>
-      <c r="D22" s="66">
+      <c r="D22" s="47">
         <v>127</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="48">
         <v>220000</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="49">
         <v>0.1</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="48">
         <f t="shared" si="0"/>
         <v>198000</v>
       </c>
-      <c r="H22" s="67">
+      <c r="H22" s="48">
         <f t="shared" si="1"/>
         <v>25146000</v>
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="65">
+      <c r="B23" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="46">
         <v>9781640151031</v>
       </c>
-      <c r="D23" s="66">
+      <c r="D23" s="47">
         <v>100</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="48">
         <v>220000</v>
       </c>
-      <c r="F23" s="68">
+      <c r="F23" s="49">
         <v>0.1</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="48">
         <f t="shared" si="0"/>
         <v>198000</v>
       </c>
-      <c r="H23" s="67">
+      <c r="H23" s="48">
         <f t="shared" si="1"/>
         <v>19800000</v>
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="65">
+      <c r="B24" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="46">
         <v>9781640151048</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="47">
         <v>93</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="48">
         <v>220000</v>
       </c>
-      <c r="F24" s="68">
+      <c r="F24" s="49">
         <v>0.1</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="48">
         <f t="shared" si="0"/>
         <v>198000</v>
       </c>
-      <c r="H24" s="67">
+      <c r="H24" s="48">
         <f t="shared" si="1"/>
         <v>18414000</v>
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="21">
         <f>SUM(H18:H24)</f>
         <v>128304000</v>
       </c>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="29"/>
+      <c r="H28" s="28"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="60"/>
+      <c r="B29" s="41"/>
       <c r="E29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="29"/>
+      <c r="H29" s="28"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="60"/>
+      <c r="B30" s="41"/>
       <c r="E30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="29"/>
+      <c r="H30" s="28"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="60" t="s">
-        <v>33</v>
+      <c r="B31" s="41" t="s">
+        <v>32</v>
       </c>
       <c r="E31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="29"/>
+      <c r="H31" s="28"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="61" t="s">
-        <v>34</v>
+      <c r="B32" s="42" t="s">
+        <v>33</v>
       </c>
       <c r="E32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="28"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="61" t="s">
-        <v>35</v>
+      <c r="B33" s="42" t="s">
+        <v>34</v>
       </c>
       <c r="E33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="29"/>
+      <c r="H33" s="28"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="61" t="s">
-        <v>36</v>
+      <c r="B34" s="42" t="s">
+        <v>35</v>
       </c>
       <c r="E34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="29"/>
+      <c r="H34" s="28"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="61" t="s">
-        <v>38</v>
+      <c r="B35" s="42" t="s">
+        <v>37</v>
       </c>
       <c r="E35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="29"/>
+      <c r="H35" s="28"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="61" t="s">
-        <v>37</v>
+      <c r="B36" s="42" t="s">
+        <v>36</v>
       </c>
       <c r="E36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="29"/>
+      <c r="H36" s="28"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="61" t="s">
-        <v>39</v>
+      <c r="B37" s="42" t="s">
+        <v>38</v>
       </c>
       <c r="E37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="29"/>
+      <c r="H37" s="28"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="69"/>
+      <c r="B38" s="50"/>
       <c r="E38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="29"/>
+      <c r="H38" s="28"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="60"/>
+      <c r="B39" s="41"/>
       <c r="E39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="29"/>
+      <c r="H39" s="28"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="28"/>
+      <c r="B40" s="27"/>
       <c r="E40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="29"/>
+      <c r="H40" s="28"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="29" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="29"/>
+      <c r="H41" s="28"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="28"/>
+      <c r="B42" s="27"/>
       <c r="E42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="29"/>
+      <c r="H42" s="28"/>
     </row>
     <row r="43" spans="2:8" ht="39" customHeight="1">
-      <c r="B43" s="28"/>
+      <c r="B43" s="27"/>
       <c r="E43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="29"/>
+      <c r="H43" s="28"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="29"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="28"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="28"/>
+      <c r="B45" s="27"/>
       <c r="E45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="29"/>
+      <c r="H45" s="28"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="54"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="C3:F3"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
@@ -1918,7 +1969,7 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="32" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>